--- a/control de cambios.xlsx
+++ b/control de cambios.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Solicitud</t>
   </si>
@@ -36,6 +36,72 @@
   </si>
   <si>
     <t>fecha de entrega</t>
+  </si>
+  <si>
+    <t>Módulo</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Validación</t>
+  </si>
+  <si>
+    <t>No permitir el ingreso de un registro con una quincena menor al ultimo registro</t>
+  </si>
+  <si>
+    <t>Irma</t>
+  </si>
+  <si>
+    <t>Se quitó el campo de de horas asignadas del formulario, en su lugar se toman en cuenta las horas designadas de la tabla de categorias homologadas (categoriashomologadas)</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agregar modulo</t>
+  </si>
+  <si>
+    <t>Agregar filtros de plantel, plantilla y personal</t>
+  </si>
+  <si>
+    <t>Agregar horas DIES como apartado separado de asignación de horas</t>
+  </si>
+  <si>
+    <t>Agregar horas de apoyo a la docencia como apartado separado de asignación de horas</t>
+  </si>
+  <si>
+    <t>Actualizacion de registros en la base de datos referentes a las horas dies y horas de apoyo</t>
+  </si>
+  <si>
+    <t>Plazas-&gt;Horas docentes</t>
+  </si>
+  <si>
+    <t>Empleados-&gt;Carga horaria</t>
+  </si>
+  <si>
+    <t>Empleados-&gt;Expediente academico</t>
+  </si>
+  <si>
+    <t>Catalogos-&gt;Categorias</t>
+  </si>
+  <si>
+    <t>Empleados-&gt;pLantillas-&gt;Nombramientos</t>
+  </si>
+  <si>
+    <t>Ajuste</t>
+  </si>
+  <si>
+    <t>Adición</t>
+  </si>
+  <si>
+    <t>Permitir eliminar plantillas</t>
+  </si>
+  <si>
+    <t>Validar que no se permita eliminar plantillas si existen documentos registrados</t>
+  </si>
+  <si>
+    <t>Sistema</t>
   </si>
 </sst>
 </file>
@@ -71,13 +137,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -88,6 +168,71 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="blob:https://web.whatsapp.com/84c476c7-f4cf-46c2-a47c-862b62d5d9ec"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7134225" y="571500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F10" totalsRowShown="0">
+  <autoFilter ref="A1:F10"/>
+  <sortState ref="A2:F9">
+    <sortCondition descending="1" ref="C1:C9"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Solicitud" dataDxfId="2"/>
+    <tableColumn id="2" name="Solicitó"/>
+    <tableColumn id="3" name="fecha de solicitud" dataDxfId="1"/>
+    <tableColumn id="4" name="fecha de entrega" dataDxfId="0"/>
+    <tableColumn id="5" name="Módulo"/>
+    <tableColumn id="6" name="Tipo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,22 +498,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -380,8 +527,195 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44725</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44725</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44725</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44725</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44725</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44725</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44725</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44725</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44722</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44725</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44725</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44725</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44715</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44715</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44722</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44715</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44720</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/control de cambios.xlsx
+++ b/control de cambios.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>Solicitud</t>
   </si>
@@ -102,14 +102,25 @@
   </si>
   <si>
     <t>Sistema</t>
+  </si>
+  <si>
+    <t>reportes de plantilla de personal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -137,12 +148,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -218,8 +230,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F10" totalsRowShown="0">
-  <autoFilter ref="A1:F10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F11" totalsRowShown="0">
+  <autoFilter ref="A1:F11"/>
   <sortState ref="A2:F9">
     <sortCondition descending="1" ref="C1:C9"/>
   </sortState>
@@ -498,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -574,7 +586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -671,7 +683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -691,7 +703,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -711,11 +723,32 @@
         <v>22</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44715</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44732</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>